--- a/Data_saved.xlsx
+++ b/Data_saved.xlsx
@@ -1,107 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\坚果云\我的坚果云\AH\THU-Group\22-01-04 2qubits+coupler gate\模拟程序2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{154CDC19-0270-4681-B5A8-FFCEFB6EBBB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="18720" windowHeight="11949" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>Gate type</t>
-  </si>
-  <si>
-    <t>omega</t>
-  </si>
-  <si>
-    <t>alpha</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>Pulse on</t>
-  </si>
-  <si>
-    <t>Pulse shape</t>
-  </si>
-  <si>
-    <t>Pulse max</t>
-  </si>
-  <si>
-    <t>t_i</t>
-  </si>
-  <si>
-    <t>t_f</t>
-  </si>
-  <si>
-    <t>Fidelity</t>
-  </si>
-  <si>
-    <t>Other info</t>
-  </si>
-  <si>
-    <t>iSWAP</t>
-  </si>
-  <si>
-    <t>[5790.0, 4800.0, 4799.9]</t>
-  </si>
-  <si>
-    <t>[-130.0, -240.0, -240.0]</t>
-  </si>
-  <si>
-    <t>[10.0, 100.0, 100.0]</t>
-  </si>
-  <si>
-    <t>omega0</t>
-  </si>
-  <si>
-    <t>square</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -116,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -440,85 +420,167 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Gate type</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>omega</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>alpha</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Pulse on</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Pulse shape</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Pulse max</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>t_i</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>t_f</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Fidelity</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Other info</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2">
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
         <v>610</v>
       </c>
-      <c r="H2">
-        <v>0.28499999999999998</v>
-      </c>
-      <c r="I2">
-        <v>0.71499999999999997</v>
-      </c>
-      <c r="J2">
-        <v>0.99240214831273077</v>
-      </c>
+      <c r="H2" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.9924021483127308</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>610</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.9924021483127308</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data_saved.xlsx
+++ b/Data_saved.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,6 +580,5856 @@
       </c>
       <c r="K3" t="inlineStr"/>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>610</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.9950315173998494</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>610</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.299</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.7010000000000001</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.9911476232384193</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>610</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.298</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.702</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.9958282693531134</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>610</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.297</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.7030000000000001</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.9921417410534259</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>610</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.296</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.704</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.996357168105763</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>610</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.7050000000000001</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.9915011442538912</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>610</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.294</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.706</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.9966499021681838</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>610</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.293</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.7070000000000001</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.9925584869877672</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>610</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.292</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.708</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.997274354018664</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>610</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.291</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.7090000000000001</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.9936186209919392</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>610</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.9973096378463482</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>610</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.289</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.7110000000000001</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.9918761382217858</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>610</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.288</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.712</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.9967554582652695</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>610</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.287</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.7130000000000001</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.9933232822530439</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>610</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.286</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.714</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.9957784594303094</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>610</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.7150000000000001</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.9924021483127308</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>610</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.284</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.716</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.9945291057006092</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>610</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.283</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.7170000000000001</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.990559767831825</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>610</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.718</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.9935161947223499</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>610</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.281</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.719</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.9919764406492169</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>610</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.9924864476385976</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>610</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.279</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.721</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.9908446227802421</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>610</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.278</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.722</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.9908619210576382</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>610</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.277</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.723</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.9901268893196509</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>610</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.276</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.724</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.9897160381694899</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>610</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.9894834738279162</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>610</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.274</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.726</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.9875743956949439</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>610</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.273</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.727</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.9878541450837508</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>610</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.272</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.728</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.9846469618988781</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>610</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.271</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.729</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.9864706065596236</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>610</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.9923451216626393</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>610</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.2949000000000001</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.7050999999999999</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.9924380196781208</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>610</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.2948</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.7052</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.9927707768841926</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>610</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.2947</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.7053</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.9933041569801525</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>610</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.2946</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.7054</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.9939785419278513</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>610</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.2945</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.7055</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.994718636077397</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>610</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.2944</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.7056</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.9954370443852636</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>610</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.2943</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.7057</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.9960562219508973</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>610</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.2942</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.7058</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.9965093648131135</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>610</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.2941</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.7059</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.99674921397306</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>610</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.294</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.706</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.9967619017560904</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>610</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.2939000000000001</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.7060999999999999</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.9965460680361053</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>610</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.2938</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.7061999999999999</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.9961389219041256</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>610</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.2937</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.7062999999999999</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.9955933618268624</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>610</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.2936</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.7064</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.9949682883966852</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>610</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.2935</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.7065</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.9943299928901056</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>610</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.2934</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.7066</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.9937508507823213</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>610</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.2933</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.7067</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.9932899702363941</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>610</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.2932</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.7068</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.9929899128883861</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>610</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.2931</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.7069</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.992886707892277</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>610</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.293</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.707</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.992987725009149</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>610</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.2929</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.7071</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.9932823674535283</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>610</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.2928</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.7072000000000001</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.9937505186237114</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>610</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.2927</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.7073</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.994342163306095</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>610</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.2926</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.7074</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.9950048332576222</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>610</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.2925</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.7075</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.9956767103091071</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>610</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.2924</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.7076</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.9962932303139177</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>610</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.2923</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.7077</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.9967941326047622</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>610</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.2922</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.7078</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.9971293840989038</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>610</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.2921</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.7079</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.9972575594563866</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>610</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.292</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.708</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.9971595480580462</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>610</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.2919</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.7081</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.9968278958398342</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>610</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.2918</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.7081999999999999</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.996286132921926</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>610</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.2917</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.7082999999999999</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.9955706345016193</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>610</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.2916</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.7083999999999999</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.9947300612725165</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>610</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.2915</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.7085</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.9938425126437771</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>610</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.2914</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.7086</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.9929793424688008</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>610</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.2913</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.7087</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.9922217691117897</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>610</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.2912</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.7088</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.9916450791268341</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>610</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.2911</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.7089</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.9912974773457922</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>610</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.291</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.709</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.9912229825717715</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>610</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.2909</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.7091</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.991427747596882</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>610</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.2908</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.7092000000000001</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.9918933393637975</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>610</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.2907</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.7093</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.9925756046710643</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>610</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.2906</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.7094</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.993403603419912</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>610</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.2905</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.7095</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.9942955280720551</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>610</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.2904</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.7096</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.9951607671569977</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>610</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.2903</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.7097</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.9959155803387489</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>610</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.2902</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.7098</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.9964911843401784</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>610</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.2901</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.7099</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.9968292919785254</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>610</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.9969080335399672</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>610</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.2899</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.7101</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.9967355358741129</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>610</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.2898</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.7101999999999999</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.9963420837193475</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>610</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.2897</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0.7102999999999999</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.9957846210914184</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>610</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.2896</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0.7103999999999999</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.9951408614695613</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>610</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0.2895</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0.7105</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.9945008591921707</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>610</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.2894</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0.7106</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.9939412742676442</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>610</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.2893</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.7107</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.993540678957254</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>610</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.2892</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.7108</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.9933445804589214</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>610</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0.2891</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0.7109</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.9933799963926081</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>610</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0.289</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0.711</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.9936334386806996</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>610</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.2889</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0.7111</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.9940812761810369</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>610</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.2888</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0.7112000000000001</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.9946575866645166</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>610</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.2887</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0.7113</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.9952978235927076</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>610</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0.2886</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0.7114</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.9959242000621166</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>610</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0.2885</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0.7115</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.9964665190269427</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>610</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0.2884</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0.7116</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.996869204411297</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>610</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.2883</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0.7117</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.9970923919032529</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>610</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0.2882</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0.7118</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.9971151681300496</v>
+      </c>
+      <c r="K102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>610</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0.2881</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0.7119</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.9969405754137247</v>
+      </c>
+      <c r="K103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>610</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0.288</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0.712</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.9965845971288916</v>
+      </c>
+      <c r="K104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>610</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0.2879</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0.7121</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.9960876353459371</v>
+      </c>
+      <c r="K105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>610</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0.2878</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0.7121999999999999</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.9954955141233395</v>
+      </c>
+      <c r="K106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>610</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0.2877</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0.7122999999999999</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.9948611780390924</v>
+      </c>
+      <c r="K107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>610</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0.2876</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0.7123999999999999</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.9942488854350753</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>610</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0.2875</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0.7125</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.993712264954743</v>
+      </c>
+      <c r="K109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>610</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0.2874</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0.7126</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.9933037289718135</v>
+      </c>
+      <c r="K110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>610</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0.2873</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0.7127</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.9930567390797853</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>610</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0.2872</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0.7128</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.9929980464866426</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>610</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0.2871</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0.7129</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.9931303181017029</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>610</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0.287</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0.713</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.9934362308344117</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>610</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0.2869</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0.7131</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.9938893167049887</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>610</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0.2868</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0.7132000000000001</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.9944432556366435</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>610</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0.2867</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0.7133</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.9950371711602148</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>610</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.2866</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0.7134</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.9956091523367505</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>610</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0.2865</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0.7135</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0.9960913488290887</v>
+      </c>
+      <c r="K119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>610</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0.2864</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0.7136</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0.9964287206276716</v>
+      </c>
+      <c r="K120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>610</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0.2863</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0.7137</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.996568287146689</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G122" t="n">
+        <v>610</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0.2862</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0.7138</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.996481209907255</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G123" t="n">
+        <v>610</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0.2861</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0.7139</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0.9961477348250046</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G124" t="n">
+        <v>610</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0.286</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0.714</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.9955796360112974</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G125" t="n">
+        <v>610</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0.2859</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0.7141</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.9948181420760041</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G126" t="n">
+        <v>610</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0.2858</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0.7141999999999999</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.9939119495978765</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>610</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0.2857</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0.7142999999999999</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0.9929379712566514</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G128" t="n">
+        <v>610</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0.2856</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0.7143999999999999</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.991977128151051</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G129" t="n">
+        <v>610</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0.2855</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0.7145</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.9911254435027965</v>
+      </c>
+      <c r="K129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G130" t="n">
+        <v>610</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0.2854</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0.7146</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0.9904594086960868</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G131" t="n">
+        <v>610</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0.2853</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0.7147</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0.9900408599207483</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G132" t="n">
+        <v>610</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0.2852</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0.7148</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0.9899040532784226</v>
+      </c>
+      <c r="K132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>iSWAP</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>[5790.0, 4800.0, 4799.9]</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>[-130.0, -240.0, -240.0]</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>[10.0, 100.0, 100.0]</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>omega0</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G133" t="n">
+        <v>610</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0.2851</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0.7149</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0.990063585357241</v>
+      </c>
+      <c r="K133" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
